--- a/public/templates/template_karyawan.xlsx
+++ b/public/templates/template_karyawan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naufal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aplikasi-manajemen-projek-kp2\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C7ED3-FE77-4005-8343-615641A81D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72772618-90D4-4595-8971-50936D3D8717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED283FF2-D8B9-46D6-8F4C-26E9C5B79E4A}"/>
   </bookViews>
@@ -36,31 +36,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Nama Divisi</t>
-  </si>
-  <si>
-    <t>Nama Lengkap</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Jenis Kelamin</t>
-  </si>
-  <si>
-    <t>Nomor Telepon</t>
-  </si>
-  <si>
-    <t>Alamat</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
-  </si>
-  <si>
-    <t>Password</t>
+    <t>nama_divisi</t>
+  </si>
+  <si>
+    <t>nama_lengkap</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
+  </si>
+  <si>
+    <t>nomor_telepon</t>
+  </si>
+  <si>
+    <t>alamat</t>
+  </si>
+  <si>
+    <t>tanggal_lahir</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
